--- a/internalData/Analysis of SimOut_CER_Bin_1ep3arms.xlsx
+++ b/internalData/Analysis of SimOut_CER_Bin_1ep3arms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cytelinc-my.sharepoint.com/personal/aniruddha_deshmukh_cytel_com/Documents/Projects/CIT/MAMS/AdaptiveGMCP/internalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{B44DDBDC-9A2A-43A5-8C9A-1C9116890C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D13B90-9F0C-4E12-86B8-B3D2DD879E5B}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="8_{B44DDBDC-9A2A-43A5-8C9A-1C9116890C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{768D0C58-0FC3-436D-AE40-49B3D89AB85B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="883" activeTab="6" xr2:uid="{26994C2A-DF17-4CFE-8DAA-E7E4301056D5}"/>
   </bookViews>
@@ -24,33 +24,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Comp.With.N'!$A$2:$BE$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Out_CER_Bin_1ep3arms_06Nov25-07'!$A$3:$AY$51</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Comp.With.N'!$A$3:$BD$90</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Comp.With.N'!$BE$3:$BE$90</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Comp.With.N'!$T$3:$T$90</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Comp.With.N'!$A$3:$BD$90</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Comp.With.N'!$BE$3:$BE$90</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Comp.With.N'!$M$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Comp.With.N'!$M$3:$M$90</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Comp.With.N'!$S$3:$S$90</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Comp.With.N'!$T$3:$T$90</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Comp.With.N'!$A$3:$BD$90</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Comp.With.N'!$BE$3:$BE$90</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Comp.With.N'!$M$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Comp.With.N'!$G$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Comp.With.N'!$M$3:$M$90</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Comp.With.N'!$S$3:$S$90</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Comp.With.N'!$T$3:$T$90</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Comp.With.N'!$A$3:$BD$90</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Comp.With.N'!$BE$3:$BE$90</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Comp.With.N'!$A$3:$BD$90</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Comp.With.N'!$BE$3:$BE$90</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Comp.With.N'!$G$3:$G$90</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Comp.With.N'!$S$3:$S$90</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Comp.With.N'!$A$3:$BD$90</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Comp.With.N'!$BE$3:$BE$90</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Comp.With.N'!$M$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Comp.With.N'!$M$3:$M$90</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Comp.With.N'!$S$3:$S$90</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Comp.With.N'!$G$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Comp.With.N'!$G$3:$G$90</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Comp.With.N'!$S$3:$S$90</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Comp.With.N'!$M$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Comp.With.N'!$M$3:$M$90</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Comp.With.N'!$T$3:$T$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -73,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8210" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8222" uniqueCount="526">
   <si>
     <t>ModelID</t>
   </si>
@@ -1577,12 +1556,87 @@
   <si>
     <t>N.Proxy</t>
   </si>
+  <si>
+    <t>Test Set 1</t>
+  </si>
+  <si>
+    <t>No treatment selection, info fraction=0.5</t>
+  </si>
+  <si>
+    <t>Test Set 2</t>
+  </si>
+  <si>
+    <t>No treatment selection, info fraction=0.75</t>
+  </si>
+  <si>
+    <t>Test Set 3</t>
+  </si>
+  <si>
+    <t>Drop hypo with p-val &gt;  0.25, info fraction=0.5</t>
+  </si>
+  <si>
+    <t>Test Set 4</t>
+  </si>
+  <si>
+    <t>Drop hypo with p-val &gt;  0.25, info fraction=0.75</t>
+  </si>
+  <si>
+    <t>Test Set 5</t>
+  </si>
+  <si>
+    <t>Drop hypo with p-val &gt;  0.5, info fraction=0.5</t>
+  </si>
+  <si>
+    <t>Test Set 6</t>
+  </si>
+  <si>
+    <t>Drop hypo with p-val &gt;  0.5, info fraction=0.75</t>
+  </si>
+  <si>
+    <t>Test Set 7</t>
+  </si>
+  <si>
+    <t>Drop hypo with p-val &gt;  0.75, info fraction=0.5</t>
+  </si>
+  <si>
+    <t>Test Set 8</t>
+  </si>
+  <si>
+    <t>Drop hypo with p-val &gt;  0.75, info fraction=0.75</t>
+  </si>
+  <si>
+    <t>Test Set 9</t>
+  </si>
+  <si>
+    <t>Select 1 best arm, info fraction=0.5</t>
+  </si>
+  <si>
+    <t>Test Set 10</t>
+  </si>
+  <si>
+    <t>Select 1 best arm, info fraction=0.75</t>
+  </si>
+  <si>
+    <t>Test Set 11</t>
+  </si>
+  <si>
+    <t>Select 2 best arms, info fraction=0.5</t>
+  </si>
+  <si>
+    <t>Test Set 12</t>
+  </si>
+  <si>
+    <t>Select 2 best arms, info fraction=0.75</t>
+  </si>
+  <si>
+    <t>Simulations results for 1 binary endpoint, 3 arms, balanced randomization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,6 +1767,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2099,7 +2167,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2113,10 +2181,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2168,13 +2240,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -2276,15 +2348,1391 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comp.With.N'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FWER_LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Comp.With.N'!$S$3:$S$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comp.With.N'!$L$3:$L$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>2.631E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.657E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6669999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.631E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4479999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5669999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6069999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4570000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5739999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5850000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.487E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5159999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.436E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4479999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4629999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4729999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4459999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3269999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6859999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.571E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4039999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5229999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4330000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6159999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.478E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3910000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3529999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4170000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.426E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2919999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4549999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.503E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5239999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.512E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4029999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2880000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2429999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.385E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.332E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.179E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.333E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1819999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.3529999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3810000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.5020000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.3390000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.496E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.366E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.496E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4879999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3359999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5219999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.3220000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5080000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.283E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4889999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5270000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2669999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2169999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5219999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.419E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4279999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.436E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.332E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.4379999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.435E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.418E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.427E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.324E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.4279999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.426E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.478E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4649999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4570000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1921-410A-942A-2F290F95D7FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comp.With.N'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FWER_UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Comp.With.N'!$S$3:$S$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comp.With.N'!$M$3:$M$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>2.9090000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9520000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.962E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9219999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7359999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.843E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8230000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.725E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.862E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.845E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7550000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7810000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7109999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7230000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7369999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7470000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7150000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.775E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1789999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8680000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.041E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.843E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9850000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.887E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0870000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8510000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8029999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7040000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7310000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6440000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6919999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.564E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7150000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7019999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5430000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5850000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4709999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.597E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6380000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8039999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.545E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.691E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.596E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6349999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5930000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7009999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5690000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.6950000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.6880000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.521E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6870000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.554E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.681E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.673E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6409999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8379999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6259999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8240000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.529E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7230000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8080000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9929999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.513E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6349999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.843E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.614E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.615E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.512E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6159999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.615E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.6040000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.605E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.503E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.606E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.605E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.7969999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.7820000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7890000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.7740000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1921-410A-942A-2F290F95D7FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="688454111"/>
+        <c:axId val="688445951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="688454111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688445951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688445951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.3000000000000008E-2"/>
+          <c:min val="2.0000000000000004E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688454111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2294,7 +3742,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-5FE2-4732-8253-255D2C620C38}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>FWER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2379,10 +3827,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2392,7 +3840,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-538D-443D-A7F8-AE9DCEF29D91}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>FWER_UCL</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2512,6 +3960,46 @@
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -3575,6 +5063,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3624,8 +5615,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="54473475" y="14287499"/>
-              <a:ext cx="6438900" cy="3705225"/>
+              <a:off x="43643550" y="14287499"/>
+              <a:ext cx="7134225" cy="3705225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3702,7 +5693,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="61064774" y="571499"/>
+              <a:off x="62931674" y="571499"/>
               <a:ext cx="5934075" cy="3781425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3731,6 +5722,44 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2BFE77-BC1B-408F-A602-82097922F1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6569,8 +8598,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F637032-DE89-4B9E-B909-BBCA419A2C5D}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="J15:M19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E497E00-1FF2-4FAE-B869-168B350DA99F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="O9:R13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="52">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6608,12 +8637,6 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6628,6 +8651,12 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
@@ -6636,7 +8665,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="36"/>
+    <field x="50"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -6664,7 +8693,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of ModelID" fld="0" subtotal="count" baseField="50" baseItem="0"/>
+    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="50" baseItem="1" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6797,8 +8826,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE125A8F-D234-4463-8DBA-3C7AB573C10E}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="O3:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD1BF8A2-8718-47C6-9CA1-5800B9CE936A}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="J9:M13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="52">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6812,21 +8841,6 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6856,6 +8870,21 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
@@ -6864,7 +8893,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="21"/>
+    <field x="50"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -6892,7 +8921,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="21" baseItem="0" numFmtId="10"/>
+    <dataField name="Count of ModelID" fld="0" subtotal="count" baseField="50" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7025,8 +9054,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD1BF8A2-8718-47C6-9CA1-5800B9CE936A}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="J9:M13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56A5C06D-18A6-4F61-A6B4-986301B51C23}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="O23:R27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="52">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7064,11 +9093,150 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="43"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="51"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="36" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="43" baseItem="1" numFmtId="10"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="7">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="43" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="51" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="43" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="51" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="43" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="51" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="43" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="51" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE125A8F-D234-4463-8DBA-3C7AB573C10E}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="O3:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="52">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7084,6 +9252,35 @@
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
@@ -7092,7 +9289,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="50"/>
+    <field x="21"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -7120,7 +9317,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of ModelID" fld="0" subtotal="count" baseField="50" baseItem="0"/>
+    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="21" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7134,7 +9331,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC1D630D-A383-4E00-9D86-DD1761ED94BF}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="T3:W7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="52">
@@ -7244,277 +9441,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE765E66-5635-4C26-B5BF-69CD4744C29B}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="O15:R19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="52">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="36"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="51"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="36" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="7">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="36" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="51" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="36" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="51" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="36" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="51" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="36" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="51" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E497E00-1FF2-4FAE-B869-168B350DA99F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="O9:R13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="52">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="50"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="51"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="50" baseItem="1" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEFE8612-3711-4015-878E-72CE68027CC2}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="T9:W13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="52">
@@ -7674,9 +9601,119 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48D3C299-2EFB-4A48-A6EB-64A7D36E518A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="J3:M7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="52">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="21"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="51"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ModelID" fld="0" subtotal="count" baseField="21" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56A5C06D-18A6-4F61-A6B4-986301B51C23}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="O23:R27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE765E66-5635-4C26-B5BF-69CD4744C29B}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="O15:R19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="52">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7714,7 +9751,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
         <item x="1"/>
@@ -7726,12 +9763,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7747,7 +9779,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="43"/>
+    <field x="36"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -7774,18 +9806,15 @@
       <x/>
     </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="36" item="1" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
-    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="43" baseItem="1" numFmtId="10"/>
+    <dataField name="Count of ModelID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="36" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="4">
     <format dxfId="15">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="43" count="1" selected="0">
-            <x v="1"/>
+          <reference field="36" count="1" selected="0">
+            <x v="0"/>
           </reference>
           <reference field="51" count="1" selected="0">
             <x v="0"/>
@@ -7796,8 +9825,8 @@
     <format dxfId="14">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="43" count="1" selected="0">
-            <x v="0"/>
+          <reference field="36" count="1" selected="0">
+            <x v="1"/>
           </reference>
           <reference field="51" count="1" selected="0">
             <x v="1"/>
@@ -7808,8 +9837,8 @@
     <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="43" count="1" selected="0">
-            <x v="0"/>
+          <reference field="36" count="1" selected="0">
+            <x v="1"/>
           </reference>
           <reference field="51" count="1" selected="0">
             <x v="1"/>
@@ -7820,8 +9849,8 @@
     <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="43" count="1" selected="0">
-            <x v="1"/>
+          <reference field="36" count="1" selected="0">
+            <x v="0"/>
           </reference>
           <reference field="51" count="1" selected="0">
             <x v="0"/>
@@ -7953,8 +9982,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48D3C299-2EFB-4A48-A6EB-64A7D36E518A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="J3:M7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F637032-DE89-4B9E-B909-BBCA419A2C5D}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="J15:M19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="52">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7968,6 +9997,21 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7997,21 +10041,6 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
@@ -8020,7 +10049,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="21"/>
+    <field x="36"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -8048,7 +10077,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of ModelID" fld="0" subtotal="count" baseField="21" baseItem="0"/>
+    <dataField name="Count of ModelID" fld="0" subtotal="count" baseField="50" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8064,13 +10093,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBE3F103-CD99-445B-89C0-7524EA5D27A4}" name="Table1" displayName="Table1" ref="A3:AZ51" totalsRowShown="0">
-  <autoFilter ref="A3:AZ51" xr:uid="{AB63D72E-3760-477A-A344-41E2FE373A46}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="17"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AZ51" xr:uid="{AB63D72E-3760-477A-A344-41E2FE373A46}"/>
   <tableColumns count="52">
     <tableColumn id="1" xr3:uid="{B647EFC9-1542-4E9E-986D-51F1831049D4}" name="ModelID"/>
     <tableColumn id="2" xr3:uid="{B58A72E2-671E-4947-A15D-6DE826D5BC00}" name="Scenario"/>
@@ -8144,13 +10167,13 @@
     <tableColumn id="9" xr3:uid="{732D0D0A-6098-4154-AC36-48B6455B7419}" name="CI_95perc_Conjunctive.Power"/>
     <tableColumn id="10" xr3:uid="{3349E5C8-665D-441F-9204-7F35C411830C}" name="CI_95perc_Disjunctive.Power"/>
     <tableColumn id="11" xr3:uid="{9B533907-20E0-4D70-B194-4A7092A52D84}" name="CI_95perc_FWER"/>
-    <tableColumn id="55" xr3:uid="{5BEA37BA-BC38-40A4-AAD5-9B54371796F6}" name="FWER_LCL" dataDxfId="2">
+    <tableColumn id="55" xr3:uid="{5BEA37BA-BC38-40A4-AAD5-9B54371796F6}" name="FWER_LCL" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(MID(Table2[[#This Row],[CI_95perc_FWER]],2,FIND(",",Table2[[#This Row],[CI_95perc_FWER]])-2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" xr3:uid="{2CC20546-CC4A-4321-ABEB-F06C6C5C6255}" name="FWER_UCL" dataDxfId="1">
+    <tableColumn id="56" xr3:uid="{2CC20546-CC4A-4321-ABEB-F06C6C5C6255}" name="FWER_UCL" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(MID(Table2[[#This Row],[CI_95perc_FWER]],FIND(",",Table2[[#This Row],[CI_95perc_FWER]])+1, LEN(Table2[[#This Row],[CI_95perc_FWER]])-FIND(",",Table2[[#This Row],[CI_95perc_FWER]])-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{FB9EACD0-CA23-476F-A4E3-887384ECF633}" name="StagewiseRejection_Count" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{FB9EACD0-CA23-476F-A4E3-887384ECF633}" name="StagewiseRejection_Count" dataDxfId="1"/>
     <tableColumn id="13" xr3:uid="{171AFDFA-D392-494A-A659-FB3BA6E4FCC8}" name="StagewiseRejection_Percentage"/>
     <tableColumn id="14" xr3:uid="{28FE672A-889C-4DC3-9AC7-B763D0A236E9}" name="HoursTaken"/>
     <tableColumn id="15" xr3:uid="{58BE723A-3B57-4866-970E-632AB276CD5D}" name="Input"/>
@@ -15145,14 +17168,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB63D72E-3760-477A-A344-41E2FE373A46}">
   <dimension ref="A2:AZ51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
@@ -15403,7 +17426,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -15561,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -15719,7 +17742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -15877,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -16035,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -16193,7 +18216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -16351,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -16509,7 +18532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -16825,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -16983,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -17141,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -17299,7 +19322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -17457,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22</v>
       </c>
@@ -17615,7 +19638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -17773,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -17931,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -18089,7 +20112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -18247,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -18405,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -18563,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
@@ -18721,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -18879,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -19037,7 +21060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -19195,7 +21218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -19353,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34</v>
       </c>
@@ -19511,7 +21534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -19669,7 +21692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>36</v>
       </c>
@@ -19827,7 +21850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>37</v>
       </c>
@@ -19985,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>38</v>
       </c>
@@ -20143,7 +22166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>39</v>
       </c>
@@ -20301,7 +22324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
@@ -20459,7 +22482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>41</v>
       </c>
@@ -20617,7 +22640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>42</v>
       </c>
@@ -20775,7 +22798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>43</v>
       </c>
@@ -20933,7 +22956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>44</v>
       </c>
@@ -21091,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>45</v>
       </c>
@@ -21249,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>46</v>
       </c>
@@ -21407,7 +23430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>47</v>
       </c>
@@ -21565,7 +23588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>48</v>
       </c>
@@ -21723,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49</v>
       </c>
@@ -21881,7 +23904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50</v>
       </c>
@@ -22039,7 +24062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -22197,7 +24220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
@@ -22355,7 +24378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>53</v>
       </c>
@@ -22513,7 +24536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>54</v>
       </c>
@@ -22671,7 +24694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -22829,7 +24852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -23618,18 +25641,18 @@
       <c r="A15" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="15"/>
       <c r="J15" s="4" t="s">
         <v>218</v>
       </c>
@@ -24094,7 +26117,7 @@
   <dimension ref="A1:AM57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34014,9 +36037,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B5CC47-7C1E-4831-9FEF-A7ADD55B53F5}">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -40821,8 +42886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1F93EC-CBCB-40C5-A9A7-351269090895}">
   <dimension ref="A1:CF90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CB23" sqref="CB23"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40871,12 +42936,27 @@
     <col min="55" max="55" width="15.42578125" customWidth="1"/>
     <col min="56" max="56" width="9.85546875" customWidth="1"/>
     <col min="57" max="57" width="14.28515625" customWidth="1"/>
-    <col min="67" max="67" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G1" t="s">
         <v>217</v>
       </c>
@@ -40889,14 +42969,31 @@
       <c r="AS1" t="s">
         <v>217</v>
       </c>
-      <c r="BH1" t="s">
-        <v>217</v>
-      </c>
+      <c r="BH1" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
       <c r="CF1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -41244,17 +43341,17 @@
       <c r="BE3">
         <v>1</v>
       </c>
-      <c r="BH3" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>446</v>
-      </c>
-      <c r="BR3">
-        <v>2</v>
+      <c r="BH3" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="BI3" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="BQ3" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="BR3" s="14" t="s">
+        <v>504</v>
       </c>
       <c r="CC3">
         <f>1.05*0.025</f>
@@ -41448,13 +43545,13 @@
       <c r="BK4" t="s">
         <v>452</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BL4" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BM4" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BN4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BO4" t="s">
@@ -41472,13 +43569,13 @@
       <c r="BT4" t="s">
         <v>452</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BU4" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BV4" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BW4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BX4" t="s">
@@ -41694,15 +43791,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH5,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL5" t="str">
+      <c r="BL5" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH5,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM5" t="str">
+      <c r="BM5" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH5,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH5,Table2[ModelID],0))</f>
         <v>2.77034E-2</v>
       </c>
@@ -41725,15 +43822,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ5,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU5" t="str">
+      <c r="BU5" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ5,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BV5" t="str">
+      <c r="BV5" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ5,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ5,Table2[ModelID],0))</f>
         <v>2.9327499999999999E-2</v>
       </c>
@@ -41748,19 +43845,19 @@
         <f>COUNTIFS(Table2[SampleSize],$CA5)</f>
         <v>21</v>
       </c>
-      <c r="CC5" s="12">
+      <c r="CC5" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA5,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3))/$CB5</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="CD5" s="12">
+      <c r="CD5" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA5,Table2[FWER_LCL],"&lt;0.025")/$CB5</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="CE5" s="12">
+      <c r="CE5" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA5,Table2[UseCC],TRUE)/$CB5</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="CF5" s="12">
+      <c r="CF5" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA5,Table2[info_frac],"c(0.5,1)")/$CB5</f>
         <v>0.95238095238095233</v>
       </c>
@@ -41955,15 +44052,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH6,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL6" t="str">
+      <c r="BL6" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH6,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM6" t="str">
+      <c r="BM6" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH6,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH6,Table2[ModelID],0))</f>
         <v>2.6880299999999999E-2</v>
       </c>
@@ -41986,15 +44083,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ6,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU6" t="str">
+      <c r="BU6" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ6,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BV6" t="str">
+      <c r="BV6" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ6,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ6,Table2[ModelID],0))</f>
         <v>2.71547E-2</v>
       </c>
@@ -42009,19 +44106,19 @@
         <f>COUNTIFS(Table2[SampleSize],$CA6)</f>
         <v>13</v>
       </c>
-      <c r="CC6" s="12">
+      <c r="CC6" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA6,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3))/$CB6</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="CD6" s="12">
+      <c r="CD6" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA6,Table2[FWER_LCL],"&lt;0.025")/$CB6</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="CE6" s="12">
+      <c r="CE6" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA6,Table2[UseCC],TRUE)/$CB6</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="CF6" s="12">
+      <c r="CF6" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA6,Table2[info_frac],"c(0.5,1)")/$CB6</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -42216,15 +44313,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH7,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL7" t="str">
+      <c r="BL7" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH7,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM7" t="str">
+      <c r="BM7" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH7,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH7,Table2[ModelID],0))</f>
         <v>2.54968E-2</v>
       </c>
@@ -42247,15 +44344,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ7,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU7" t="str">
+      <c r="BU7" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ7,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BV7" t="str">
+      <c r="BV7" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ7,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ7,Table2[ModelID],0))</f>
         <v>2.48401E-2</v>
       </c>
@@ -42270,19 +44367,19 @@
         <f>COUNTIFS(Table2[SampleSize],$CA7)</f>
         <v>18</v>
       </c>
-      <c r="CC7" s="12">
+      <c r="CC7" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA7,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3))/$CB7</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="CD7" s="12">
+      <c r="CD7" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA7,Table2[FWER_LCL],"&lt;0.025")/$CB7</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="CE7" s="12">
+      <c r="CE7" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA7,Table2[UseCC],TRUE)/$CB7</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="CF7" s="12">
+      <c r="CF7" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA7,Table2[info_frac],"c(0.5,1)")/$CB7</f>
         <v>0.61111111111111116</v>
       </c>
@@ -42477,15 +44574,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH8,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL8" t="str">
+      <c r="BL8" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH8,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM8" t="str">
+      <c r="BM8" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH8,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH8,Table2[ModelID],0))</f>
         <v>2.4516474999999999E-2</v>
       </c>
@@ -42508,15 +44605,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ8,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU8" t="str">
+      <c r="BU8" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ8,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BV8" t="str">
+      <c r="BV8" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ8,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ8,Table2[ModelID],0))</f>
         <v>2.3939100000000001E-2</v>
       </c>
@@ -42531,19 +44628,19 @@
         <f>COUNTIFS(Table2[SampleSize],$CA8)</f>
         <v>18</v>
       </c>
-      <c r="CC8" s="12">
+      <c r="CC8" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA8,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3))/$CB8</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="CD8" s="12">
+      <c r="CD8" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA8,Table2[FWER_LCL],"&lt;0.025")/$CB8</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="CE8" s="12">
+      <c r="CE8" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA8,Table2[UseCC],TRUE)/$CB8</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="CF8" s="12">
+      <c r="CF8" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA8,Table2[info_frac],"c(0.5,1)")/$CB8</f>
         <v>0.61111111111111116</v>
       </c>
@@ -42738,15 +44835,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH9,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL9" t="str">
+      <c r="BL9" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH9,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM9" t="str">
+      <c r="BM9" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH9,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH9,Table2[ModelID],0))</f>
         <v>2.4440125E-2</v>
       </c>
@@ -42769,15 +44866,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ9,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU9" t="str">
+      <c r="BU9" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ9,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BV9" t="str">
+      <c r="BV9" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ9,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ9,Table2[ModelID],0))</f>
         <v>2.488435E-2</v>
       </c>
@@ -42792,19 +44889,19 @@
         <f>COUNTIFS(Table2[SampleSize],5000)+COUNTIFS(Table2[SampleSize],10000)</f>
         <v>18</v>
       </c>
-      <c r="CC9" s="12">
+      <c r="CC9" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3))+COUNTIFS(Table2[SampleSize],10000,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3)))/$CB9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="CD9" s="12">
+      <c r="CD9" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[FWER_LCL],"&lt;0.025")+COUNTIFS(Table2[SampleSize],10000,Table2[FWER_LCL],"&lt;0.025"))/$CB9</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="CE9" s="12">
+      <c r="CE9" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[UseCC],TRUE)+COUNTIFS(Table2[SampleSize],10000,Table2[UseCC],TRUE))/$CB9</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="CF9" s="12">
+      <c r="CF9" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[info_frac],"c(0.5,1)")+COUNTIFS(Table2[SampleSize],10000,Table2[info_frac],"c(0.5,1)"))/$CB9</f>
         <v>0.61111111111111116</v>
       </c>
@@ -42999,15 +45096,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH10,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL10" t="str">
+      <c r="BL10" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH10,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM10" t="str">
+      <c r="BM10" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH10,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH10,Table2[ModelID],0))</f>
         <v>2.429715E-2</v>
       </c>
@@ -43030,15 +45127,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ10,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU10" t="str">
+      <c r="BU10" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ10,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BV10" t="str">
+      <c r="BV10" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ10,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ10,Table2[ModelID],0))</f>
         <v>2.4739225E-2</v>
       </c>
@@ -43046,7 +45143,7 @@
         <f>INDEX(Table2[CI_95perc_FWER],MATCH(BQ10,Table2[ModelID],0))</f>
         <v>(0.02322,0.02626)</v>
       </c>
-      <c r="CC10" s="12"/>
+      <c r="CC10" s="11"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -43238,15 +45335,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH11,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL11" t="str">
+      <c r="BL11" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH11,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM11" t="str">
+      <c r="BM11" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH11,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH11,Table2[ModelID],0))</f>
         <v>2.5209949999999998E-2</v>
       </c>
@@ -43445,15 +45542,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH12,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL12" t="str">
+      <c r="BL12" s="13" t="str">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH12,Table2[ModelID],0))</f>
         <v>NA</v>
       </c>
-      <c r="BM12" t="str">
+      <c r="BM12" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH12,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH12,Table2[ModelID],0))</f>
         <v>2.5111325E-2</v>
       </c>
@@ -43832,17 +45929,17 @@
       <c r="BE14">
         <v>7</v>
       </c>
-      <c r="BH14" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI14">
-        <v>3</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>446</v>
-      </c>
-      <c r="BR14">
-        <v>4</v>
+      <c r="BH14" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="BI14" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="BQ14" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="BR14" s="14" t="s">
+        <v>508</v>
       </c>
       <c r="CA14">
         <v>400</v>
@@ -43851,11 +45948,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA14, Table2[UseCC], CB12)</f>
         <v>6</v>
       </c>
-      <c r="CC14" s="12">
+      <c r="CC14" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA14,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB12)/$CB14</f>
         <v>0</v>
       </c>
-      <c r="CD14" s="12">
+      <c r="CD14" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA14,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB12)/$CB14</f>
         <v>1</v>
       </c>
@@ -44047,13 +46144,13 @@
       <c r="BK15" t="s">
         <v>452</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="BL15" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="BM15" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="BN15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BO15" t="s">
@@ -44071,13 +46168,13 @@
       <c r="BT15" t="s">
         <v>452</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="BU15" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BV15" t="s">
+      <c r="BV15" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BW15" t="s">
+      <c r="BW15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BX15" t="s">
@@ -44090,11 +46187,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA15, Table2[UseCC], CB12)</f>
         <v>6</v>
       </c>
-      <c r="CC15" s="12">
+      <c r="CC15" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA15,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB12)/$CB15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="CD15" s="12">
+      <c r="CD15" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA15,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB12)/$CB15</f>
         <v>1</v>
       </c>
@@ -44289,15 +46386,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH16,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH16,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BM16" t="str">
+      <c r="BM16" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH16,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH16,Table2[ModelID],0))</f>
         <v>2.5917800000000001E-2</v>
       </c>
@@ -44320,15 +46417,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ16,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ16,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BV16" t="str">
+      <c r="BV16" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ16,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ16,Table2[ModelID],0))</f>
         <v>2.55096E-2</v>
       </c>
@@ -44343,11 +46440,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA16, Table2[UseCC], CB12)</f>
         <v>11</v>
       </c>
-      <c r="CC16" s="12">
+      <c r="CC16" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA16,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB12)/$CB16</f>
         <v>0</v>
       </c>
-      <c r="CD16" s="12">
+      <c r="CD16" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA16,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB12)/$CB16</f>
         <v>1</v>
       </c>
@@ -44542,15 +46639,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH17,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH17,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BM17" t="str">
+      <c r="BM17" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH17,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH17,Table2[ModelID],0))</f>
         <v>2.46965E-2</v>
       </c>
@@ -44573,15 +46670,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ17,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU17">
+      <c r="BU17" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ17,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BV17" t="str">
+      <c r="BV17" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ17,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW17">
+      <c r="BW17" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ17,Table2[ModelID],0))</f>
         <v>2.7538900000000002E-2</v>
       </c>
@@ -44596,11 +46693,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA17, Table2[UseCC], CB12)</f>
         <v>11</v>
       </c>
-      <c r="CC17" s="12">
+      <c r="CC17" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA17,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB12)/$CB17</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="CD17" s="12">
+      <c r="CD17" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA17,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB12)/$CB17</f>
         <v>0.81818181818181823</v>
       </c>
@@ -44795,15 +46892,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH18,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL18">
+      <c r="BL18" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH18,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BM18" t="str">
+      <c r="BM18" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH18,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN18">
+      <c r="BN18" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH18,Table2[ModelID],0))</f>
         <v>2.3796600000000001E-2</v>
       </c>
@@ -44826,15 +46923,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ18,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU18">
+      <c r="BU18" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ18,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BV18" t="str">
+      <c r="BV18" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ18,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW18">
+      <c r="BW18" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ18,Table2[ModelID],0))</f>
         <v>2.5780600000000001E-2</v>
       </c>
@@ -44849,11 +46946,11 @@
         <f>COUNTIFS(Table2[SampleSize],5000, Table2[UseCC], CB12)+COUNTIFS(Table2[SampleSize],10000, Table2[UseCC], CB12)</f>
         <v>11</v>
       </c>
-      <c r="CC18" s="12">
+      <c r="CC18" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB12)+COUNTIFS(Table2[SampleSize],10000,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB12))/$CB18</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="CD18" s="12">
+      <c r="CD18" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB12)+COUNTIFS(Table2[SampleSize],10000,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB12))/$CB18</f>
         <v>0.90909090909090906</v>
       </c>
@@ -45048,15 +47145,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH19,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL19">
+      <c r="BL19" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH19,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BM19" t="str">
+      <c r="BM19" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH19,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN19">
+      <c r="BN19" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH19,Table2[ModelID],0))</f>
         <v>2.4750125000000001E-2</v>
       </c>
@@ -45079,15 +47176,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ19,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU19">
+      <c r="BU19" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ19,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BV19" t="str">
+      <c r="BV19" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ19,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW19">
+      <c r="BW19" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ19,Table2[ModelID],0))</f>
         <v>2.38769E-2</v>
       </c>
@@ -45286,15 +47383,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH20,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL20">
+      <c r="BL20" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH20,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BM20" t="str">
+      <c r="BM20" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH20,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN20">
+      <c r="BN20" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH20,Table2[ModelID],0))</f>
         <v>2.4604075E-2</v>
       </c>
@@ -45317,15 +47414,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ20,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU20">
+      <c r="BU20" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ20,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BV20" t="str">
+      <c r="BV20" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ20,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW20">
+      <c r="BW20" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ20,Table2[ModelID],0))</f>
         <v>2.7602000000000002E-2</v>
       </c>
@@ -45530,15 +47627,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH21,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL21">
+      <c r="BL21" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH21,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BM21" t="str">
+      <c r="BM21" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH21,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN21">
+      <c r="BN21" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH21,Table2[ModelID],0))</f>
         <v>2.4221224999999999E-2</v>
       </c>
@@ -45561,15 +47658,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ21,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU21">
+      <c r="BU21" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ21,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BV21" t="str">
+      <c r="BV21" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ21,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW21">
+      <c r="BW21" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ21,Table2[ModelID],0))</f>
         <v>2.64426E-2</v>
       </c>
@@ -45781,15 +47878,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH22,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL22">
+      <c r="BL22" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH22,Table2[ModelID],0))</f>
         <v>0.25</v>
       </c>
-      <c r="BM22" t="str">
+      <c r="BM22" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH22,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN22">
+      <c r="BN22" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH22,Table2[ModelID],0))</f>
         <v>2.4137425000000001E-2</v>
       </c>
@@ -45804,11 +47901,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA22, Table2[UseCC], CB20)</f>
         <v>15</v>
       </c>
-      <c r="CC22" s="12">
+      <c r="CC22" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA22,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB20)/$CB22</f>
         <v>0.8</v>
       </c>
-      <c r="CD22" s="12">
+      <c r="CD22" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA22,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB20)/$CB22</f>
         <v>0.2</v>
       </c>
@@ -45995,11 +48092,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA23, Table2[UseCC], CB20)</f>
         <v>7</v>
       </c>
-      <c r="CC23" s="12">
+      <c r="CC23" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA23,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB20)/$CB23</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="CD23" s="12">
+      <c r="CD23" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA23,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB20)/$CB23</f>
         <v>0.42857142857142855</v>
       </c>
@@ -46179,17 +48276,17 @@
       <c r="BE24">
         <v>2</v>
       </c>
-      <c r="BH24" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI24">
-        <v>5</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>446</v>
-      </c>
-      <c r="BR24">
-        <v>6</v>
+      <c r="BH24" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="BI24" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="BQ24" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="BR24" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="CA24">
         <v>1000</v>
@@ -46198,11 +48295,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA24, Table2[UseCC], CB20)</f>
         <v>7</v>
       </c>
-      <c r="CC24" s="12">
+      <c r="CC24" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA24,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB20)/$CB24</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="CD24" s="12">
+      <c r="CD24" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA24,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB20)/$CB24</f>
         <v>0.5714285714285714</v>
       </c>
@@ -46394,13 +48491,13 @@
       <c r="BK25" t="s">
         <v>452</v>
       </c>
-      <c r="BL25" t="s">
+      <c r="BL25" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BM25" t="s">
+      <c r="BM25" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BN25" t="s">
+      <c r="BN25" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BO25" t="s">
@@ -46418,13 +48515,13 @@
       <c r="BT25" t="s">
         <v>452</v>
       </c>
-      <c r="BU25" t="s">
+      <c r="BU25" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BV25" t="s">
+      <c r="BV25" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BW25" t="s">
+      <c r="BW25" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BX25" t="s">
@@ -46437,11 +48534,11 @@
         <f>COUNTIFS(Table2[SampleSize],$CA25, Table2[UseCC], CB20)</f>
         <v>7</v>
       </c>
-      <c r="CC25" s="12">
+      <c r="CC25" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA25,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB20)/$CB25</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="CD25" s="12">
+      <c r="CD25" s="11">
         <f>COUNTIFS(Table2[SampleSize],$CA25,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB20)/$CB25</f>
         <v>0.42857142857142855</v>
       </c>
@@ -46636,15 +48733,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH26,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL26">
+      <c r="BL26" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH26,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM26" t="str">
+      <c r="BM26" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH26,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN26">
+      <c r="BN26" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH26,Table2[ModelID],0))</f>
         <v>2.8046600000000001E-2</v>
       </c>
@@ -46667,15 +48764,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ26,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU26">
+      <c r="BU26" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ26,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BV26" t="str">
+      <c r="BV26" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ26,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW26">
+      <c r="BW26" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ26,Table2[ModelID],0))</f>
         <v>2.64368E-2</v>
       </c>
@@ -46690,11 +48787,11 @@
         <f>COUNTIFS(Table2[SampleSize],5000, Table2[UseCC], CB20)+COUNTIFS(Table2[SampleSize],10000, Table2[UseCC], CB20)</f>
         <v>7</v>
       </c>
-      <c r="CC26" s="12">
+      <c r="CC26" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB20)+COUNTIFS(Table2[SampleSize],10000,Table2[FWER],_xlfn.CONCAT("&gt;",$CC$3), Table2[UseCC], CB20))/$CB26</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="CD26" s="12">
+      <c r="CD26" s="11">
         <f>(COUNTIFS(Table2[SampleSize],5000,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB20)+COUNTIFS(Table2[SampleSize],10000,Table2[FWER_LCL],"&lt;0.025", Table2[UseCC], CB20))/$CB26</f>
         <v>1</v>
       </c>
@@ -46889,15 +48986,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH27,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL27">
+      <c r="BL27" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH27,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM27" t="str">
+      <c r="BM27" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH27,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN27">
+      <c r="BN27" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH27,Table2[ModelID],0))</f>
         <v>2.7767699999999999E-2</v>
       </c>
@@ -46920,15 +49017,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ27,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU27">
+      <c r="BU27" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ27,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BV27" t="str">
+      <c r="BV27" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ27,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW27">
+      <c r="BW27" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ27,Table2[ModelID],0))</f>
         <v>2.62318E-2</v>
       </c>
@@ -47127,15 +49224,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH28,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL28">
+      <c r="BL28" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH28,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM28" t="str">
+      <c r="BM28" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH28,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN28">
+      <c r="BN28" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH28,Table2[ModelID],0))</f>
         <v>2.7179999999999999E-2</v>
       </c>
@@ -47158,15 +49255,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ28,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU28">
+      <c r="BU28" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ28,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BV28" t="str">
+      <c r="BV28" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ28,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW28">
+      <c r="BW28" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ28,Table2[ModelID],0))</f>
         <v>2.6798599999999999E-2</v>
       </c>
@@ -47365,15 +49462,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH29,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL29">
+      <c r="BL29" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH29,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM29" t="str">
+      <c r="BM29" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH29,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN29">
+      <c r="BN29" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH29,Table2[ModelID],0))</f>
         <v>2.7024300000000001E-2</v>
       </c>
@@ -47396,15 +49493,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ29,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU29">
+      <c r="BU29" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ29,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BV29" t="str">
+      <c r="BV29" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ29,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW29">
+      <c r="BW29" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ29,Table2[ModelID],0))</f>
         <v>2.6662425E-2</v>
       </c>
@@ -47603,15 +49700,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH30,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL30">
+      <c r="BL30" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH30,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM30" t="str">
+      <c r="BM30" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH30,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN30">
+      <c r="BN30" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH30,Table2[ModelID],0))</f>
         <v>2.5736499999999999E-2</v>
       </c>
@@ -47634,15 +49731,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ30,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU30">
+      <c r="BU30" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ30,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BV30" t="str">
+      <c r="BV30" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ30,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW30">
+      <c r="BW30" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ30,Table2[ModelID],0))</f>
         <v>2.6378200000000001E-2</v>
       </c>
@@ -47841,15 +49938,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH31,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL31">
+      <c r="BL31" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH31,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM31" t="str">
+      <c r="BM31" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH31,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN31">
+      <c r="BN31" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH31,Table2[ModelID],0))</f>
         <v>2.6003499999999999E-2</v>
       </c>
@@ -47872,15 +49969,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ31,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU31">
+      <c r="BU31" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ31,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BV31" t="str">
+      <c r="BV31" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ31,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW31">
+      <c r="BW31" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ31,Table2[ModelID],0))</f>
         <v>2.62931E-2</v>
       </c>
@@ -48079,15 +50176,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH32,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL32">
+      <c r="BL32" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH32,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM32" t="str">
+      <c r="BM32" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH32,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN32">
+      <c r="BN32" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH32,Table2[ModelID],0))</f>
         <v>2.5805499999999999E-2</v>
       </c>
@@ -48286,15 +50383,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH33,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL33">
+      <c r="BL33" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH33,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM33" t="str">
+      <c r="BM33" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH33,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN33">
+      <c r="BN33" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH33,Table2[ModelID],0))</f>
         <v>2.6067799999999999E-2</v>
       </c>
@@ -48493,15 +50590,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH34,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL34">
+      <c r="BL34" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH34,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM34" t="str">
+      <c r="BM34" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH34,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN34">
+      <c r="BN34" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH34,Table2[ModelID],0))</f>
         <v>2.5045524999999999E-2</v>
       </c>
@@ -48700,15 +50797,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH35,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL35">
+      <c r="BL35" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH35,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM35" t="str">
+      <c r="BM35" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH35,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN35">
+      <c r="BN35" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH35,Table2[ModelID],0))</f>
         <v>2.5948224999999998E-2</v>
       </c>
@@ -48907,15 +51004,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH36,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL36">
+      <c r="BL36" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH36,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM36" t="str">
+      <c r="BM36" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH36,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN36">
+      <c r="BN36" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH36,Table2[ModelID],0))</f>
         <v>2.5807424999999998E-2</v>
       </c>
@@ -49114,15 +51211,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH37,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL37">
+      <c r="BL37" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH37,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM37" t="str">
+      <c r="BM37" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH37,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN37">
+      <c r="BN37" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH37,Table2[ModelID],0))</f>
         <v>2.52502E-2</v>
       </c>
@@ -49321,15 +51418,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH38,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL38">
+      <c r="BL38" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH38,Table2[ModelID],0))</f>
         <v>0.5</v>
       </c>
-      <c r="BM38" t="str">
+      <c r="BM38" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH38,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN38">
+      <c r="BN38" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH38,Table2[ModelID],0))</f>
         <v>2.5151699999999999E-2</v>
       </c>
@@ -49689,17 +51786,17 @@
       <c r="BE40">
         <v>11</v>
       </c>
-      <c r="BH40" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI40">
-        <v>7</v>
-      </c>
-      <c r="BQ40" t="s">
-        <v>446</v>
-      </c>
-      <c r="BR40">
-        <v>8</v>
+      <c r="BH40" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="BI40" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="BQ40" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="BR40" s="14" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:76" x14ac:dyDescent="0.25">
@@ -49889,13 +51986,13 @@
       <c r="BK41" t="s">
         <v>452</v>
       </c>
-      <c r="BL41" t="s">
+      <c r="BL41" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BM41" t="s">
+      <c r="BM41" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BN41" t="s">
+      <c r="BN41" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BO41" t="s">
@@ -49913,13 +52010,13 @@
       <c r="BT41" t="s">
         <v>452</v>
       </c>
-      <c r="BU41" t="s">
+      <c r="BU41" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BV41" t="s">
+      <c r="BV41" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BW41" t="s">
+      <c r="BW41" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BX41" t="s">
@@ -50116,15 +52213,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH42,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL42">
+      <c r="BL42" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH42,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM42" t="str">
+      <c r="BM42" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH42,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN42">
+      <c r="BN42" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH42,Table2[ModelID],0))</f>
         <v>2.8146899999999999E-2</v>
       </c>
@@ -50147,15 +52244,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ42,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU42">
+      <c r="BU42" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ42,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BV42" t="str">
+      <c r="BV42" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ42,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW42">
+      <c r="BW42" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ42,Table2[ModelID],0))</f>
         <v>2.8061699999999998E-2</v>
       </c>
@@ -50354,15 +52451,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH43,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL43">
+      <c r="BL43" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH43,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM43" t="str">
+      <c r="BM43" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH43,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN43">
+      <c r="BN43" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH43,Table2[ModelID],0))</f>
         <v>2.7294300000000001E-2</v>
       </c>
@@ -50385,15 +52482,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ43,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU43">
+      <c r="BU43" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ43,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BV43" t="str">
+      <c r="BV43" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ43,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW43">
+      <c r="BW43" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ43,Table2[ModelID],0))</f>
         <v>2.6209799999999998E-2</v>
       </c>
@@ -50592,15 +52689,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH44,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL44">
+      <c r="BL44" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH44,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM44" t="str">
+      <c r="BM44" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH44,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN44">
+      <c r="BN44" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH44,Table2[ModelID],0))</f>
         <v>2.5852699999999999E-2</v>
       </c>
@@ -50623,15 +52720,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ44,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU44">
+      <c r="BU44" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ44,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BV44" t="str">
+      <c r="BV44" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ44,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW44">
+      <c r="BW44" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ44,Table2[ModelID],0))</f>
         <v>2.4838275E-2</v>
       </c>
@@ -50830,15 +52927,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH45,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL45">
+      <c r="BL45" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH45,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM45" t="str">
+      <c r="BM45" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH45,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN45">
+      <c r="BN45" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH45,Table2[ModelID],0))</f>
         <v>2.61043E-2</v>
       </c>
@@ -50861,15 +52958,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ45,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU45">
+      <c r="BU45" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ45,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BV45" t="str">
+      <c r="BV45" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ45,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW45">
+      <c r="BW45" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ45,Table2[ModelID],0))</f>
         <v>2.6484575E-2</v>
       </c>
@@ -51068,15 +53165,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH46,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL46">
+      <c r="BL46" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH46,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM46" t="str">
+      <c r="BM46" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH46,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN46">
+      <c r="BN46" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH46,Table2[ModelID],0))</f>
         <v>2.5973550000000001E-2</v>
       </c>
@@ -51099,15 +53196,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ46,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU46">
+      <c r="BU46" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ46,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BV46" t="str">
+      <c r="BV46" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ46,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW46">
+      <c r="BW46" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ46,Table2[ModelID],0))</f>
         <v>2.682785E-2</v>
       </c>
@@ -51306,15 +53403,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH47,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL47">
+      <c r="BL47" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH47,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM47" t="str">
+      <c r="BM47" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH47,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN47">
+      <c r="BN47" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH47,Table2[ModelID],0))</f>
         <v>2.4937424999999999E-2</v>
       </c>
@@ -51513,15 +53610,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH48,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL48">
+      <c r="BL48" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH48,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM48" t="str">
+      <c r="BM48" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH48,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN48">
+      <c r="BN48" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH48,Table2[ModelID],0))</f>
         <v>2.6058375000000002E-2</v>
       </c>
@@ -51720,15 +53817,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH49,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL49">
+      <c r="BL49" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH49,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM49" t="str">
+      <c r="BM49" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH49,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN49">
+      <c r="BN49" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH49,Table2[ModelID],0))</f>
         <v>2.5912825E-2</v>
       </c>
@@ -51927,15 +54024,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH50,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL50">
+      <c r="BL50" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH50,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM50" t="str">
+      <c r="BM50" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH50,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN50">
+      <c r="BN50" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH50,Table2[ModelID],0))</f>
         <v>2.5257149999999999E-2</v>
       </c>
@@ -52134,15 +54231,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH51,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL51">
+      <c r="BL51" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH51,Table2[ModelID],0))</f>
         <v>0.75</v>
       </c>
-      <c r="BM51" t="str">
+      <c r="BM51" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH51,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN51">
+      <c r="BN51" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH51,Table2[ModelID],0))</f>
         <v>2.5157100000000002E-2</v>
       </c>
@@ -52502,17 +54599,17 @@
       <c r="BE53">
         <v>8</v>
       </c>
-      <c r="BH53" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI53">
-        <v>9</v>
-      </c>
-      <c r="BQ53" t="s">
-        <v>446</v>
-      </c>
-      <c r="BR53">
-        <v>10</v>
+      <c r="BH53" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="BI53" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="BQ53" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="BR53" s="14" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:76" x14ac:dyDescent="0.25">
@@ -52702,13 +54799,13 @@
       <c r="BK54" t="s">
         <v>452</v>
       </c>
-      <c r="BL54" t="s">
+      <c r="BL54" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BM54" t="s">
+      <c r="BM54" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BN54" t="s">
+      <c r="BN54" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BO54" t="s">
@@ -52726,13 +54823,13 @@
       <c r="BT54" t="s">
         <v>452</v>
       </c>
-      <c r="BU54" t="s">
+      <c r="BU54" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BV54" t="s">
+      <c r="BV54" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BW54" t="s">
+      <c r="BW54" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BX54" t="s">
@@ -52929,15 +55026,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH55,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL55">
+      <c r="BL55" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH55,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM55" t="str">
+      <c r="BM55" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH55,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN55">
+      <c r="BN55" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH55,Table2[ModelID],0))</f>
         <v>2.6875699999999999E-2</v>
       </c>
@@ -52960,15 +55057,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ55,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU55">
+      <c r="BU55" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ55,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BV55" t="str">
+      <c r="BV55" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ55,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW55">
+      <c r="BW55" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ55,Table2[ModelID],0))</f>
         <v>2.6602399999999998E-2</v>
       </c>
@@ -53167,15 +55264,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH56,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL56">
+      <c r="BL56" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH56,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM56" t="str">
+      <c r="BM56" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH56,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN56">
+      <c r="BN56" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH56,Table2[ModelID],0))</f>
         <v>2.7047700000000001E-2</v>
       </c>
@@ -53198,15 +55295,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ56,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU56">
+      <c r="BU56" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ56,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BV56" t="str">
+      <c r="BV56" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ56,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW56">
+      <c r="BW56" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ56,Table2[ModelID],0))</f>
         <v>2.51165E-2</v>
       </c>
@@ -53405,15 +55502,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH57,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL57">
+      <c r="BL57" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH57,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM57" t="str">
+      <c r="BM57" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH57,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN57">
+      <c r="BN57" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH57,Table2[ModelID],0))</f>
         <v>2.5911099999999999E-2</v>
       </c>
@@ -53436,15 +55533,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ57,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU57">
+      <c r="BU57" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ57,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BV57" t="str">
+      <c r="BV57" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ57,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW57">
+      <c r="BW57" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ57,Table2[ModelID],0))</f>
         <v>2.3941400000000002E-2</v>
       </c>
@@ -53643,15 +55740,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH58,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL58">
+      <c r="BL58" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH58,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM58" t="str">
+      <c r="BM58" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH58,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN58">
+      <c r="BN58" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH58,Table2[ModelID],0))</f>
         <v>2.6208800000000001E-2</v>
       </c>
@@ -53674,15 +55771,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ58,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU58">
+      <c r="BU58" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ58,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BV58" t="str">
+      <c r="BV58" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ58,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW58">
+      <c r="BW58" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ58,Table2[ModelID],0))</f>
         <v>2.5061199999999999E-2</v>
       </c>
@@ -53881,15 +55978,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH59,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL59">
+      <c r="BL59" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH59,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM59" t="str">
+      <c r="BM59" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH59,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN59">
+      <c r="BN59" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH59,Table2[ModelID],0))</f>
         <v>2.5647699999999999E-2</v>
       </c>
@@ -53912,15 +56009,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ59,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU59">
+      <c r="BU59" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ59,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BV59" t="str">
+      <c r="BV59" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ59,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW59">
+      <c r="BW59" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ59,Table2[ModelID],0))</f>
         <v>2.4262700000000002E-2</v>
       </c>
@@ -54119,15 +56216,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH60,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL60">
+      <c r="BL60" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH60,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM60" t="str">
+      <c r="BM60" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH60,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN60">
+      <c r="BN60" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH60,Table2[ModelID],0))</f>
         <v>2.4643200000000001E-2</v>
       </c>
@@ -54326,15 +56423,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH61,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL61">
+      <c r="BL61" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH61,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM61" t="str">
+      <c r="BM61" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH61,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN61">
+      <c r="BN61" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH61,Table2[ModelID],0))</f>
         <v>2.4060000000000002E-2</v>
       </c>
@@ -54533,15 +56630,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH62,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL62">
+      <c r="BL62" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH62,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BM62" t="str">
+      <c r="BM62" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH62,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN62">
+      <c r="BN62" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH62,Table2[ModelID],0))</f>
         <v>2.3898699999999998E-2</v>
       </c>
@@ -54901,17 +56998,17 @@
       <c r="BE64">
         <v>5</v>
       </c>
-      <c r="BH64" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI64">
-        <v>11</v>
-      </c>
-      <c r="BQ64" t="s">
-        <v>446</v>
-      </c>
-      <c r="BR64">
-        <v>12</v>
+      <c r="BH64" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="BI64" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="BQ64" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="BR64" s="14" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:76" x14ac:dyDescent="0.25">
@@ -55101,13 +57198,13 @@
       <c r="BK65" t="s">
         <v>452</v>
       </c>
-      <c r="BL65" t="s">
+      <c r="BL65" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BM65" t="s">
+      <c r="BM65" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BN65" t="s">
+      <c r="BN65" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BO65" t="s">
@@ -55125,13 +57222,13 @@
       <c r="BT65" t="s">
         <v>452</v>
       </c>
-      <c r="BU65" t="s">
+      <c r="BU65" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BV65" t="s">
+      <c r="BV65" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="BW65" t="s">
+      <c r="BW65" s="14" t="s">
         <v>6</v>
       </c>
       <c r="BX65" t="s">
@@ -55328,15 +57425,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH66,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL66">
+      <c r="BL66" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH66,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM66" t="str">
+      <c r="BM66" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH66,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN66">
+      <c r="BN66" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH66,Table2[ModelID],0))</f>
         <v>2.7430900000000001E-2</v>
       </c>
@@ -55359,15 +57456,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ66,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU66">
+      <c r="BU66" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ66,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BV66" t="str">
+      <c r="BV66" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ66,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW66">
+      <c r="BW66" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ66,Table2[ModelID],0))</f>
         <v>2.8512200000000001E-2</v>
       </c>
@@ -55566,15 +57663,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH67,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL67">
+      <c r="BL67" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH67,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM67" t="str">
+      <c r="BM67" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH67,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN67">
+      <c r="BN67" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH67,Table2[ModelID],0))</f>
         <v>2.64841E-2</v>
       </c>
@@ -55597,15 +57694,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ67,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU67">
+      <c r="BU67" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ67,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BV67" t="str">
+      <c r="BV67" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ67,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW67">
+      <c r="BW67" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ67,Table2[ModelID],0))</f>
         <v>2.64572E-2</v>
       </c>
@@ -55804,15 +57901,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH68,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL68">
+      <c r="BL68" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH68,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM68" t="str">
+      <c r="BM68" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH68,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN68">
+      <c r="BN68" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH68,Table2[ModelID],0))</f>
         <v>2.6193850000000001E-2</v>
       </c>
@@ -55835,15 +57932,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ68,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU68">
+      <c r="BU68" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ68,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BV68" t="str">
+      <c r="BV68" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ68,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW68">
+      <c r="BW68" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ68,Table2[ModelID],0))</f>
         <v>2.6474049999999999E-2</v>
       </c>
@@ -56042,15 +58139,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH69,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL69">
+      <c r="BL69" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH69,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM69" t="str">
+      <c r="BM69" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH69,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN69">
+      <c r="BN69" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH69,Table2[ModelID],0))</f>
         <v>2.5166424999999999E-2</v>
       </c>
@@ -56073,15 +58170,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ69,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU69">
+      <c r="BU69" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ69,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BV69" t="str">
+      <c r="BV69" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ69,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW69">
+      <c r="BW69" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ69,Table2[ModelID],0))</f>
         <v>2.53793E-2</v>
       </c>
@@ -56280,15 +58377,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH70,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL70">
+      <c r="BL70" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH70,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM70" t="str">
+      <c r="BM70" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH70,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN70">
+      <c r="BN70" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH70,Table2[ModelID],0))</f>
         <v>2.602645E-2</v>
       </c>
@@ -56311,15 +58408,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ70,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BU70">
+      <c r="BU70" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ70,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BV70" t="str">
+      <c r="BV70" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ70,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW70">
+      <c r="BW70" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ70,Table2[ModelID],0))</f>
         <v>2.6235925E-2</v>
       </c>
@@ -56518,15 +58615,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH71,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL71">
+      <c r="BL71" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH71,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM71" t="str">
+      <c r="BM71" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH71,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN71">
+      <c r="BN71" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH71,Table2[ModelID],0))</f>
         <v>2.5882024999999999E-2</v>
       </c>
@@ -56549,15 +58646,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BQ71,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BU71">
+      <c r="BU71" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BQ71,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BV71" t="str">
+      <c r="BV71" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BQ71,Table2[ModelID],0))</f>
         <v>c(0.75,1)</v>
       </c>
-      <c r="BW71">
+      <c r="BW71" s="14">
         <f>INDEX(Table2[FWER],MATCH(BQ71,Table2[ModelID],0))</f>
         <v>2.615085E-2</v>
       </c>
@@ -56756,15 +58853,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH72,Table2[ModelID],0))</f>
         <v>0</v>
       </c>
-      <c r="BL72">
+      <c r="BL72" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH72,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM72" t="str">
+      <c r="BM72" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH72,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN72">
+      <c r="BN72" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH72,Table2[ModelID],0))</f>
         <v>2.526865E-2</v>
       </c>
@@ -56963,15 +59060,15 @@
         <f>INDEX(Table2[UseCC],MATCH(BH73,Table2[ModelID],0))</f>
         <v>1</v>
       </c>
-      <c r="BL73">
+      <c r="BL73" s="13">
         <f>INDEX(Table2[SelectionParmeter],MATCH(BH73,Table2[ModelID],0))</f>
         <v>2</v>
       </c>
-      <c r="BM73" t="str">
+      <c r="BM73" s="12" t="str">
         <f>INDEX(Table2[info_frac],MATCH(BH73,Table2[ModelID],0))</f>
         <v>c(0.5,1)</v>
       </c>
-      <c r="BN73">
+      <c r="BN73" s="14">
         <f>INDEX(Table2[FWER],MATCH(BH73,Table2[ModelID],0))</f>
         <v>2.5167849999999999E-2</v>
       </c>
